--- a/Git_Hub_Data_Excel/March_2010.xlsx
+++ b/Git_Hub_Data_Excel/March_2010.xlsx
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK1711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,13 +1996,9 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="str">
-        <f>F1</f>
-        <v xml:space="preserve">Lines per Commit </v>
-      </c>
-      <c r="G2" t="e">
+      <c r="G2">
         <f>D2*F2</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" t="str">
@@ -25323,7 +25319,7 @@
         <v>2</v>
       </c>
       <c r="G1667">
-        <f>D1667*F1667</f>
+        <f t="shared" ref="G1667:G1711" si="376">D1667*F1667</f>
         <v>0</v>
       </c>
     </row>
@@ -25335,17 +25331,17 @@
         <v>2</v>
       </c>
       <c r="G1668">
-        <f>D1668*F1668</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
     <row r="1669" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1669">
-        <f t="shared" ref="F1669:F1671" si="376">F1668</f>
+        <f t="shared" ref="F1669:F1671" si="377">F1668</f>
         <v>2</v>
       </c>
       <c r="G1669">
-        <f>D1669*F1669</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25357,21 +25353,21 @@
         <v>37</v>
       </c>
       <c r="F1670">
+        <f t="shared" si="377"/>
+        <v>2</v>
+      </c>
+      <c r="G1670">
         <f t="shared" si="376"/>
         <v>2</v>
       </c>
-      <c r="G1670">
-        <f>D1670*F1670</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="1671" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1671">
+        <f t="shared" si="377"/>
+        <v>2</v>
+      </c>
+      <c r="G1671">
         <f t="shared" si="376"/>
-        <v>2</v>
-      </c>
-      <c r="G1671">
-        <f>D1671*F1671</f>
         <v>0</v>
       </c>
     </row>
@@ -25383,17 +25379,17 @@
         <v>64</v>
       </c>
       <c r="G1672">
-        <f>D1672*F1672</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
     <row r="1673" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1673">
-        <f t="shared" ref="F1673:F1675" si="377">F1672</f>
+        <f t="shared" ref="F1673:F1675" si="378">F1672</f>
         <v>64</v>
       </c>
       <c r="G1673">
-        <f>D1673*F1673</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25405,21 +25401,21 @@
         <v>37</v>
       </c>
       <c r="F1674">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>64</v>
       </c>
       <c r="G1674">
-        <f>D1674*F1674</f>
+        <f t="shared" si="376"/>
         <v>64</v>
       </c>
     </row>
     <row r="1675" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1675">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>64</v>
       </c>
       <c r="G1675">
-        <f>D1675*F1675</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25431,17 +25427,17 @@
         <v>41</v>
       </c>
       <c r="G1676">
-        <f>D1676*F1676</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
     <row r="1677" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1677">
-        <f t="shared" ref="F1677:F1680" si="378">F1676</f>
+        <f t="shared" ref="F1677:F1680" si="379">F1676</f>
         <v>41</v>
       </c>
       <c r="G1677">
-        <f>D1677*F1677</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25453,11 +25449,11 @@
         <v>49</v>
       </c>
       <c r="F1678">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>41</v>
       </c>
       <c r="G1678">
-        <f>D1678*F1678</f>
+        <f t="shared" si="376"/>
         <v>38.867999999999995</v>
       </c>
     </row>
@@ -25469,21 +25465,21 @@
         <v>37</v>
       </c>
       <c r="F1679">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>41</v>
       </c>
       <c r="G1679">
-        <f>D1679*F1679</f>
+        <f t="shared" si="376"/>
         <v>2.0909999999999997</v>
       </c>
     </row>
     <row r="1680" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1680">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>41</v>
       </c>
       <c r="G1680">
-        <f>D1680*F1680</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25495,17 +25491,17 @@
         <v>1</v>
       </c>
       <c r="G1681">
-        <f>D1681*F1681</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
     <row r="1682" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1682">
-        <f t="shared" ref="F1682:F1684" si="379">F1681</f>
+        <f t="shared" ref="F1682:F1684" si="380">F1681</f>
         <v>1</v>
       </c>
       <c r="G1682">
-        <f>D1682*F1682</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25517,21 +25513,21 @@
         <v>49</v>
       </c>
       <c r="F1683">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>1</v>
       </c>
       <c r="G1683">
-        <f>D1683*F1683</f>
+        <f t="shared" si="376"/>
         <v>1</v>
       </c>
     </row>
     <row r="1684" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1684">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>1</v>
       </c>
       <c r="G1684">
-        <f>D1684*F1684</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25543,17 +25539,17 @@
         <v>8</v>
       </c>
       <c r="G1685">
-        <f>D1685*F1685</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
     <row r="1686" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1686">
-        <f t="shared" ref="F1686:F1688" si="380">F1685</f>
+        <f t="shared" ref="F1686:F1688" si="381">F1685</f>
         <v>8</v>
       </c>
       <c r="G1686">
-        <f>D1686*F1686</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25565,21 +25561,21 @@
         <v>36</v>
       </c>
       <c r="F1687">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v>8</v>
       </c>
       <c r="G1687">
-        <f>D1687*F1687</f>
+        <f t="shared" si="376"/>
         <v>8</v>
       </c>
     </row>
     <row r="1688" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1688">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v>8</v>
       </c>
       <c r="G1688">
-        <f>D1688*F1688</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25591,17 +25587,17 @@
         <v>13</v>
       </c>
       <c r="G1689">
-        <f>D1689*F1689</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
     <row r="1690" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1690">
-        <f t="shared" ref="F1690:F1692" si="381">F1689</f>
+        <f t="shared" ref="F1690:F1692" si="382">F1689</f>
         <v>13</v>
       </c>
       <c r="G1690">
-        <f>D1690*F1690</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25613,21 +25609,21 @@
         <v>36</v>
       </c>
       <c r="F1691">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>13</v>
       </c>
       <c r="G1691">
-        <f>D1691*F1691</f>
+        <f t="shared" si="376"/>
         <v>13</v>
       </c>
     </row>
     <row r="1692" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1692">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>13</v>
       </c>
       <c r="G1692">
-        <f>D1692*F1692</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25639,17 +25635,17 @@
         <v>54</v>
       </c>
       <c r="G1693">
-        <f>D1693*F1693</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
     <row r="1694" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1694">
-        <f t="shared" ref="F1694:F1696" si="382">F1693</f>
+        <f t="shared" ref="F1694:F1696" si="383">F1693</f>
         <v>54</v>
       </c>
       <c r="G1694">
-        <f>D1694*F1694</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25661,21 +25657,21 @@
         <v>36</v>
       </c>
       <c r="F1695">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>54</v>
       </c>
       <c r="G1695">
-        <f>D1695*F1695</f>
+        <f t="shared" si="376"/>
         <v>54</v>
       </c>
     </row>
     <row r="1696" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1696">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>54</v>
       </c>
       <c r="G1696">
-        <f>D1696*F1696</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25687,17 +25683,17 @@
         <v>16</v>
       </c>
       <c r="G1697">
-        <f>D1697*F1697</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
     <row r="1698" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F1698">
-        <f t="shared" ref="F1698:F1700" si="383">F1697</f>
+        <f t="shared" ref="F1698:F1700" si="384">F1697</f>
         <v>16</v>
       </c>
       <c r="G1698">
-        <f>D1698*F1698</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25709,21 +25705,21 @@
         <v>36</v>
       </c>
       <c r="F1699">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>16</v>
       </c>
       <c r="G1699">
-        <f>D1699*F1699</f>
+        <f t="shared" si="376"/>
         <v>16</v>
       </c>
     </row>
     <row r="1700" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F1700">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>16</v>
       </c>
       <c r="G1700">
-        <f>D1700*F1700</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25735,17 +25731,17 @@
         <v>954</v>
       </c>
       <c r="G1701">
-        <f>D1701*F1701</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
     <row r="1702" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F1702">
-        <f t="shared" ref="F1702:F1704" si="384">F1701</f>
+        <f t="shared" ref="F1702:F1704" si="385">F1701</f>
         <v>954</v>
       </c>
       <c r="G1702">
-        <f>D1702*F1702</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25757,21 +25753,21 @@
         <v>36</v>
       </c>
       <c r="F1703">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>954</v>
       </c>
       <c r="G1703">
-        <f>D1703*F1703</f>
+        <f t="shared" si="376"/>
         <v>954</v>
       </c>
     </row>
     <row r="1704" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F1704">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>954</v>
       </c>
       <c r="G1704">
-        <f>D1704*F1704</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25783,17 +25779,17 @@
         <v>11</v>
       </c>
       <c r="G1705">
-        <f>D1705*F1705</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
     <row r="1706" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F1706">
-        <f t="shared" ref="F1706:F1708" si="385">F1705</f>
+        <f t="shared" ref="F1706:F1708" si="386">F1705</f>
         <v>11</v>
       </c>
       <c r="G1706">
-        <f>D1706*F1706</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25805,11 +25801,11 @@
         <v>49</v>
       </c>
       <c r="F1707">
-        <f t="shared" si="385"/>
+        <f t="shared" si="386"/>
         <v>11</v>
       </c>
       <c r="G1707">
-        <f>D1707*F1707</f>
+        <f t="shared" si="376"/>
         <v>11</v>
       </c>
     </row>
@@ -25818,11 +25814,11 @@
         <v>50</v>
       </c>
       <c r="F1708">
-        <f t="shared" si="385"/>
+        <f t="shared" si="386"/>
         <v>11</v>
       </c>
       <c r="G1708">
-        <f>D1708*F1708</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25834,7 +25830,7 @@
         <v>1</v>
       </c>
       <c r="G1709">
-        <f>D1709*F1709</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25843,7 +25839,7 @@
         <v>1</v>
       </c>
       <c r="G1710">
-        <f>D1710*F1710</f>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
     </row>
@@ -25858,7 +25854,7 @@
         <v>1</v>
       </c>
       <c r="G1711">
-        <f>D1711*F1711</f>
+        <f t="shared" si="376"/>
         <v>1</v>
       </c>
     </row>

--- a/Git_Hub_Data_Excel/March_2010.xlsx
+++ b/Git_Hub_Data_Excel/March_2010.xlsx
@@ -21,6 +21,7 @@
     <definedName name="Mar_2010LOC" localSheetId="2">Sheet3!$A$1:$C$426</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1891,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK1711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
